--- a/DSC640_TermProject/Airplane_Vehicle_Fatalities.xlsx
+++ b/DSC640_TermProject/Airplane_Vehicle_Fatalities.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x/Documents/DSC640/DSC640_TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394B0B8E-853A-F547-ACAF-ECD052BB478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A2821-5406-FB4E-AD71-5D0ECFD5D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1680" windowWidth="27240" windowHeight="16420" xr2:uid="{BB3B410C-3402-1E4F-9AB9-385DFC12D23A}"/>
+    <workbookView xWindow="2680" yWindow="1000" windowWidth="27240" windowHeight="16420" xr2:uid="{BB3B410C-3402-1E4F-9AB9-385DFC12D23A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Transposed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>VehicleFatalities</t>
+  </si>
+  <si>
+    <t>Airplane</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
   </si>
 </sst>
 </file>
@@ -103,17 +110,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,332 +455,614 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1994</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1342</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>39508</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1995</v>
       </c>
+      <c r="B3" s="1">
+        <v>1136</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1769</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1209</v>
+      </c>
+      <c r="C5" s="2">
+        <v>33919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1221</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B7" s="1">
+        <v>618</v>
+      </c>
+      <c r="C7" s="2">
+        <v>34748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1116</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1104</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1017</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B11" s="1">
+        <v>633</v>
+      </c>
+      <c r="C11" s="2">
+        <v>31006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B12" s="1">
+        <v>485</v>
+      </c>
+      <c r="C12" s="2">
+        <v>29867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="1">
+        <v>852</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B15" s="1">
+        <v>694</v>
+      </c>
+      <c r="C15" s="2">
+        <v>34172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="1">
+        <v>523</v>
+      </c>
+      <c r="C16" s="2">
+        <v>37435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B17" s="1">
+        <v>677</v>
+      </c>
+      <c r="C17" s="2">
+        <v>38648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B18" s="1">
+        <v>795</v>
+      </c>
+      <c r="C18" s="2">
+        <v>39252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="1">
+        <v>473</v>
+      </c>
+      <c r="C19" s="2">
+        <v>38444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B20" s="1">
+        <v>395</v>
+      </c>
+      <c r="C20" s="2">
+        <v>38477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B21" s="1">
+        <v>224</v>
+      </c>
+      <c r="C21" s="2">
+        <v>38491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="1">
+        <v>925</v>
+      </c>
+      <c r="C22" s="2">
+        <v>37862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B23" s="1">
+        <v>493</v>
+      </c>
+      <c r="C23" s="2">
+        <v>37526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="1">
+        <v>288</v>
+      </c>
+      <c r="C24" s="2">
+        <v>37140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="1">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2">
+        <v>37107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="1">
+        <v>542</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="1">
+        <v>269</v>
+      </c>
+      <c r="C27" s="2">
+        <v>37494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="3">
+        <v>297</v>
+      </c>
+      <c r="C28" s="2">
+        <v>37241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="3">
+        <v>104</v>
+      </c>
+      <c r="C29" s="2">
+        <v>36254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9896DB6-F8BE-F747-90D8-CBB7328B912D}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1994</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1995</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1996</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1997</v>
+      </c>
+      <c r="F1" s="4">
+        <v>1998</v>
+      </c>
+      <c r="G1" s="4">
+        <v>1999</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2001</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2002</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2003</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2004</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2005</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2006</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2007</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2008</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2009</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2010</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2011</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2012</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2013</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2014</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2015</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2016</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1342</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1136</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1769</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1209</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1221</v>
+      </c>
+      <c r="G2" s="1">
+        <v>618</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1116</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1104</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1017</v>
+      </c>
+      <c r="K2" s="1">
+        <v>633</v>
+      </c>
+      <c r="L2" s="1">
+        <v>485</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1015</v>
+      </c>
+      <c r="N2" s="1">
+        <v>852</v>
+      </c>
+      <c r="O2" s="1">
+        <v>694</v>
+      </c>
+      <c r="P2" s="1">
+        <v>523</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>677</v>
+      </c>
+      <c r="R2" s="1">
+        <v>795</v>
+      </c>
+      <c r="S2" s="1">
+        <v>473</v>
+      </c>
+      <c r="T2" s="1">
+        <v>395</v>
+      </c>
+      <c r="U2" s="1">
+        <v>224</v>
+      </c>
+      <c r="V2" s="1">
+        <v>925</v>
+      </c>
+      <c r="W2" s="1">
+        <v>493</v>
+      </c>
+      <c r="X2" s="1">
+        <v>288</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>542</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>269</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>297</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="2">
-        <v>1136</v>
-      </c>
-      <c r="C3" s="3">
+        <v>39508</v>
+      </c>
+      <c r="C3" s="2">
         <v>35935</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1996</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1769</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D3" s="2">
         <v>33487</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>1997</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1209</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="E3" s="2">
         <v>33919</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>1998</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1221</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="F3" s="2">
         <v>34560</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>1999</v>
-      </c>
-      <c r="B7" s="2">
-        <v>618</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="G3" s="2">
         <v>34748</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1116</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="H3" s="2">
         <v>32538</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1104</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="I3" s="2">
         <v>30056</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1017</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="J3" s="2">
         <v>30202</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B11" s="2">
-        <v>633</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="K3" s="2">
         <v>31006</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>2004</v>
-      </c>
-      <c r="B12" s="2">
-        <v>485</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="L3" s="2">
         <v>29867</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1015</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="M3" s="2">
         <v>30296</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="2">
-        <v>852</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="N3" s="2">
         <v>30862</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B15" s="2">
-        <v>694</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="O3" s="2">
         <v>34172</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="2">
-        <v>523</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="P3" s="2">
         <v>37435</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B17" s="2">
-        <v>677</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="Q3" s="2">
         <v>38648</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B18" s="2">
-        <v>795</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="R3" s="2">
         <v>39252</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B19" s="2">
-        <v>473</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="S3" s="2">
         <v>38444</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B20" s="2">
-        <v>395</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="T3" s="2">
         <v>38477</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B21" s="2">
-        <v>224</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="U3" s="2">
         <v>38491</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B22" s="2">
-        <v>925</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="V3" s="2">
         <v>37862</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B23" s="2">
-        <v>493</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="W3" s="2">
         <v>37526</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B24" s="2">
-        <v>288</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="X3" s="2">
         <v>37140</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="2">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="Y3" s="2">
         <v>37107</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="2">
-        <v>542</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="Z3" s="2">
         <v>37324</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="2">
-        <v>269</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="AA3" s="2">
         <v>37494</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="4">
-        <v>297</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="AB3" s="2">
         <v>37241</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="5">
-        <v>104</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="AC3" s="2">
         <v>36254</v>
       </c>
     </row>
